--- a/webproject1/app/static/setting/card.xlsx
+++ b/webproject1/app/static/setting/card.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>상무</t>
+          <t>김태영</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1233,6 +1233,27 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>2034</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>이육림(관계사)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2031</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2099,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>임시카드</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2105,7 +2126,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>임시카드</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
